--- a/teaching/traditional_assets/database/data/kenya/kenya_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/kenya/kenya_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0776</v>
+        <v>0.0492</v>
       </c>
       <c r="E2">
-        <v>0.06519999999999999</v>
+        <v>0.0116</v>
       </c>
       <c r="F2">
-        <v>0.196</v>
+        <v>0.203</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.004610534567329584</v>
+        <v>0.001259959829151908</v>
       </c>
       <c r="J2">
-        <v>0.003239015179095972</v>
+        <v>0.0008687484059772132</v>
       </c>
       <c r="K2">
-        <v>1004.6</v>
+        <v>779.1999999999999</v>
       </c>
       <c r="L2">
-        <v>0.3239600128990648</v>
+        <v>0.2639924108957853</v>
       </c>
       <c r="M2">
-        <v>285.3222</v>
+        <v>225.6954</v>
       </c>
       <c r="N2">
-        <v>0.03675885081164648</v>
+        <v>0.04276964184195566</v>
       </c>
       <c r="O2">
-        <v>0.2840157276527971</v>
+        <v>0.2896501540041068</v>
       </c>
       <c r="P2">
-        <v>285.3222</v>
+        <v>225.6954</v>
       </c>
       <c r="Q2">
-        <v>0.03675885081164648</v>
+        <v>0.04276964184195566</v>
       </c>
       <c r="R2">
-        <v>0.2840157276527971</v>
+        <v>0.2896501540041068</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,55 +642,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1800.9</v>
+        <v>985.2</v>
       </c>
       <c r="V2">
-        <v>0.2320149446019067</v>
+        <v>0.1866969869243889</v>
       </c>
       <c r="W2">
-        <v>0.1803173241852487</v>
+        <v>0.1332305848103433</v>
       </c>
       <c r="X2">
-        <v>0.07194227021501161</v>
+        <v>0.06852684594809766</v>
       </c>
       <c r="Y2">
-        <v>0.1083750539702371</v>
+        <v>0.06470373886224567</v>
       </c>
       <c r="Z2">
-        <v>0.4775439124215295</v>
+        <v>0.4795882900972031</v>
       </c>
       <c r="AA2">
-        <v>0.00207576324305233</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06832747482210022</v>
+        <v>0.06402157685438542</v>
       </c>
       <c r="AC2">
-        <v>-0.06638399704592449</v>
+        <v>-0.06332964261135079</v>
       </c>
       <c r="AD2">
-        <v>2375.1</v>
+        <v>2468.8</v>
       </c>
       <c r="AE2">
-        <v>263.7636615335548</v>
+        <v>27.61551284137614</v>
       </c>
       <c r="AF2">
-        <v>2638.863661533555</v>
+        <v>2496.415512841376</v>
       </c>
       <c r="AG2">
-        <v>837.9636615335548</v>
+        <v>1511.215512841376</v>
       </c>
       <c r="AH2">
-        <v>0.2537158208594831</v>
+        <v>0.3211478286111679</v>
       </c>
       <c r="AI2">
-        <v>0.3136216227404113</v>
+        <v>0.2774345101291178</v>
       </c>
       <c r="AJ2">
-        <v>0.09743804677706373</v>
+        <v>0.2226233845968186</v>
       </c>
       <c r="AK2">
-        <v>0.1267095498411202</v>
+        <v>0.1885951063516045</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>35.42281879194631</v>
+        <v>267.1283272019044</v>
       </c>
       <c r="AP2">
-        <v>12.49759375888971</v>
+        <v>163.5160693401186</v>
       </c>
     </row>
     <row r="3">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0247</v>
+        <v>0.0181</v>
       </c>
       <c r="E3">
-        <v>-0.0558</v>
+        <v>-0.0554</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,34 +734,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01055584411210595</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007214560122597611</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>77.3</v>
+        <v>58.4</v>
       </c>
       <c r="L3">
-        <v>0.2909296198720361</v>
+        <v>0.2519413287316652</v>
       </c>
       <c r="M3">
-        <v>62.8605</v>
+        <v>47.61539999999999</v>
       </c>
       <c r="N3">
-        <v>0.09157998251748252</v>
+        <v>0.09544076969332531</v>
       </c>
       <c r="O3">
-        <v>0.8132018111254852</v>
+        <v>0.8153321917808218</v>
       </c>
       <c r="P3">
-        <v>62.8605</v>
+        <v>47.61539999999999</v>
       </c>
       <c r="Q3">
-        <v>0.09157998251748252</v>
+        <v>0.09544076969332531</v>
       </c>
       <c r="R3">
-        <v>0.8132018111254852</v>
+        <v>0.8153321917808218</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,67 +770,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>28</v>
+        <v>32.7</v>
       </c>
       <c r="V3">
-        <v>0.04079254079254079</v>
+        <v>0.06554419723391462</v>
       </c>
       <c r="W3">
-        <v>0.1666307393834878</v>
+        <v>0.1265438786565547</v>
       </c>
       <c r="X3">
-        <v>0.0669583375037872</v>
+        <v>0.06539629396975648</v>
       </c>
       <c r="Y3">
-        <v>0.09967240187970063</v>
+        <v>0.06114758468679822</v>
       </c>
       <c r="Z3">
-        <v>0.4576091033416935</v>
+        <v>0.4334330590875094</v>
       </c>
       <c r="AA3">
-        <v>0.003301448388706631</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06478632695083499</v>
+        <v>0.06198625544051664</v>
       </c>
       <c r="AC3">
-        <v>-0.06148487856212836</v>
+        <v>-0.06198625544051664</v>
       </c>
       <c r="AD3">
-        <v>101.3</v>
+        <v>117.3</v>
       </c>
       <c r="AE3">
-        <v>14.82656109706725</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>116.1265610970673</v>
+        <v>117.3</v>
       </c>
       <c r="AG3">
-        <v>88.12656109706725</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.1447012058246649</v>
+        <v>0.1903602726387537</v>
       </c>
       <c r="AI3">
-        <v>0.2010408954818696</v>
+        <v>0.2024158757549612</v>
       </c>
       <c r="AJ3">
-        <v>0.1137811994106976</v>
+        <v>0.144987146529563</v>
       </c>
       <c r="AK3">
-        <v>0.160338978016573</v>
+        <v>0.1547183613752743</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>17.55632582322357</v>
-      </c>
-      <c r="AP3">
-        <v>15.27323415893713</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Co-operative Bank of Kenya Limited (NASE:COOP)</t>
+          <t>KCB Group PLC (NASE:KCB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,13 +844,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0848</v>
+        <v>0.0492</v>
       </c>
       <c r="E4">
-        <v>0.0919</v>
+        <v>-0.0137</v>
       </c>
       <c r="F4">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,100 +859,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008604273490268712</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.006032881412717142</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>128.7</v>
+        <v>155.6</v>
       </c>
       <c r="L4">
-        <v>0.3041834081777357</v>
+        <v>0.2387968078575813</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>73.9105</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.06595618418704266</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.4750032133676093</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>73.9105</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.06595618418704266</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.4750032133676093</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>68</v>
+        <v>115.6</v>
       </c>
       <c r="V4">
-        <v>0.07184363444268357</v>
+        <v>0.1031590219525254</v>
       </c>
       <c r="W4">
-        <v>0.1830204778156996</v>
+        <v>0.1332305848103433</v>
       </c>
       <c r="X4">
-        <v>0.07194227021501161</v>
+        <v>0.06541818693612766</v>
       </c>
       <c r="Y4">
-        <v>0.111078207600688</v>
+        <v>0.06781239787421567</v>
       </c>
       <c r="Z4">
-        <v>0.4523935406128251</v>
+        <v>0.5149766853710582</v>
       </c>
       <c r="AA4">
-        <v>0.00272923658239641</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06863964000553494</v>
+        <v>0.06199635108859568</v>
       </c>
       <c r="AC4">
-        <v>-0.06591040342313853</v>
+        <v>-0.06199635108859568</v>
       </c>
       <c r="AD4">
-        <v>286.3</v>
+        <v>264.2</v>
       </c>
       <c r="AE4">
-        <v>31.64765943133654</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>317.9476594313365</v>
+        <v>264.2</v>
       </c>
       <c r="AG4">
-        <v>249.9476594313365</v>
+        <v>148.6</v>
       </c>
       <c r="AH4">
-        <v>0.251451815391337</v>
+        <v>0.1907856730213749</v>
       </c>
       <c r="AI4">
-        <v>0.3045628356545484</v>
+        <v>0.1742054595806409</v>
       </c>
       <c r="AJ4">
-        <v>0.2089081435874387</v>
+        <v>0.1170816262212417</v>
       </c>
       <c r="AK4">
-        <v>0.2561076477984235</v>
+        <v>0.1060670949321913</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>28.71614844533601</v>
-      </c>
-      <c r="AP4">
-        <v>25.06997587074589</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +960,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stanbic Holdings Plc (NASE:SBIC)</t>
+          <t>The Co-operative Bank of Kenya Limited (NASE:COOP)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -978,13 +969,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0433</v>
+        <v>0.06570000000000001</v>
       </c>
       <c r="E5">
-        <v>0.0156</v>
-      </c>
-      <c r="F5">
-        <v>0.182</v>
+        <v>0.0488</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -993,91 +981,88 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004086956468893439</v>
+        <v>0.008568719037593462</v>
       </c>
       <c r="J5">
-        <v>0.002978857404330673</v>
+        <v>0.005955528879926467</v>
       </c>
       <c r="K5">
-        <v>66.40000000000001</v>
+        <v>123.6</v>
       </c>
       <c r="L5">
-        <v>0.3280632411067194</v>
+        <v>0.293238434163701</v>
       </c>
       <c r="M5">
-        <v>37.9</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.08894625674724242</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.5707831325301204</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>37.9</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.08894625674724242</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.5707831325301204</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>178.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="V5">
-        <v>0.418915747477118</v>
+        <v>0.1044242514524058</v>
       </c>
       <c r="W5">
-        <v>0.1585860998328159</v>
+        <v>0.1734980348119034</v>
       </c>
       <c r="X5">
-        <v>0.0705518100511015</v>
+        <v>0.07325481897697717</v>
       </c>
       <c r="Y5">
-        <v>0.08803428978171438</v>
+        <v>0.1002432158349263</v>
       </c>
       <c r="Z5">
-        <v>0.6672952780429297</v>
+        <v>0.4399371387376074</v>
       </c>
       <c r="AA5">
-        <v>0.001987777479873076</v>
+        <v>0.002620058335104038</v>
       </c>
       <c r="AB5">
-        <v>0.06791595929090193</v>
+        <v>0.06503644479176166</v>
       </c>
       <c r="AC5">
-        <v>-0.06592818181102884</v>
+        <v>-0.06241638645665762</v>
       </c>
       <c r="AD5">
-        <v>114</v>
+        <v>286.9</v>
       </c>
       <c r="AE5">
-        <v>9.314000053479839</v>
+        <v>27.39142462827177</v>
       </c>
       <c r="AF5">
-        <v>123.3140000534798</v>
+        <v>314.2914246282717</v>
       </c>
       <c r="AG5">
-        <v>-55.18599994652016</v>
+        <v>244.1914246282717</v>
       </c>
       <c r="AH5">
-        <v>0.2244464102506971</v>
+        <v>0.3188861193133968</v>
       </c>
       <c r="AI5">
-        <v>0.2122027692365547</v>
+        <v>0.2897252112183416</v>
       </c>
       <c r="AJ5">
-        <v>-0.1487838149505363</v>
+        <v>0.2667326181972964</v>
       </c>
       <c r="AK5">
-        <v>-0.1370692522842964</v>
+        <v>0.2406558473850612</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1086,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>42.37918215613383</v>
+        <v>31.56215621562156</v>
       </c>
       <c r="AP5">
-        <v>-20.51524161580675</v>
+        <v>26.86374308341823</v>
       </c>
     </row>
     <row r="6">
@@ -1100,7 +1085,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Equity Group Holdings Plc (NASE:EQTY)</t>
+          <t>I&amp;M Holdings PLC (NASE:IMH)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1109,13 +1094,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0776</v>
+        <v>0.0755</v>
       </c>
       <c r="E6">
-        <v>0.06469999999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.236</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1124,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.005822247164252655</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.004050088431429624</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>205.4</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="L6">
-        <v>0.3246404299035878</v>
+        <v>0.3824404761904762</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1157,67 +1139,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1059.7</v>
+        <v>32</v>
       </c>
       <c r="V6">
-        <v>0.5319512072687115</v>
+        <v>0.09395184967704051</v>
       </c>
       <c r="W6">
-        <v>0.2305016272023342</v>
+        <v>0.1468012185833968</v>
       </c>
       <c r="X6">
-        <v>0.07274646985282825</v>
+        <v>0.06816016825662524</v>
       </c>
       <c r="Y6">
-        <v>0.157755157349506</v>
+        <v>0.07864105032677154</v>
       </c>
       <c r="Z6">
-        <v>0.5125229431890739</v>
+        <v>0.4472049689440993</v>
       </c>
       <c r="AA6">
-        <v>0.00207576324305233</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.06832747482210022</v>
+        <v>0.06318208611642764</v>
       </c>
       <c r="AC6">
-        <v>-0.06625171157904788</v>
+        <v>-0.06318208611642764</v>
       </c>
       <c r="AD6">
-        <v>638.7</v>
+        <v>108</v>
       </c>
       <c r="AE6">
-        <v>84.08132109588672</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>722.7813210958868</v>
+        <v>108</v>
       </c>
       <c r="AG6">
-        <v>-336.9186789041132</v>
+        <v>76</v>
       </c>
       <c r="AH6">
-        <v>0.2662294353272612</v>
+        <v>0.2407489968791797</v>
       </c>
       <c r="AI6">
-        <v>0.4083553382633301</v>
+        <v>0.1551501221088924</v>
       </c>
       <c r="AJ6">
-        <v>-0.2035539397466382</v>
+        <v>0.1824291886701872</v>
       </c>
       <c r="AK6">
-        <v>-0.4743454021630251</v>
+        <v>0.1144405962957386</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>31.15609756097561</v>
-      </c>
-      <c r="AP6">
-        <v>-16.43505750751772</v>
       </c>
     </row>
     <row r="7">
@@ -1228,7 +1204,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KCB Group PLC (NASE:KCB)</t>
+          <t>NCBA Group PLC (NASE:NCBA)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1237,13 +1213,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.06809999999999999</v>
+        <v>0.153</v>
       </c>
       <c r="E7">
-        <v>0.09429999999999999</v>
-      </c>
-      <c r="F7">
-        <v>0.21</v>
+        <v>0.0765</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1252,34 +1225,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.004497347934172328</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.003188860826456793</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>241.9</v>
+        <v>52.8</v>
       </c>
       <c r="L7">
-        <v>0.3575757575757576</v>
+        <v>0.2170160295930949</v>
       </c>
       <c r="M7">
-        <v>109.106</v>
+        <v>21.4175</v>
       </c>
       <c r="N7">
-        <v>0.06381214177096738</v>
+        <v>0.05309246405552802</v>
       </c>
       <c r="O7">
-        <v>0.4510376188507648</v>
+        <v>0.4056344696969697</v>
       </c>
       <c r="P7">
-        <v>109.106</v>
+        <v>21.4175</v>
       </c>
       <c r="Q7">
-        <v>0.06381214177096738</v>
+        <v>0.05309246405552802</v>
       </c>
       <c r="R7">
-        <v>0.4510376188507648</v>
+        <v>0.4056344696969697</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1288,67 +1261,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>115.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="V7">
-        <v>0.06772721955784303</v>
+        <v>0.1745166088249876</v>
       </c>
       <c r="W7">
-        <v>0.2312177403938062</v>
+        <v>0.1689059500959693</v>
       </c>
       <c r="X7">
-        <v>0.06660860427612751</v>
+        <v>0.06852684594809766</v>
       </c>
       <c r="Y7">
-        <v>0.1646091361176786</v>
+        <v>0.1003791041478716</v>
       </c>
       <c r="Z7">
-        <v>0.5550713305141599</v>
+        <v>0.6050733648346183</v>
       </c>
       <c r="AA7">
-        <v>-0.001770045221765856</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06461395182415863</v>
+        <v>0.06332964261135079</v>
       </c>
       <c r="AC7">
-        <v>-0.06638399704592449</v>
+        <v>-0.06332964261135079</v>
       </c>
       <c r="AD7">
-        <v>213.2</v>
+        <v>132.3</v>
       </c>
       <c r="AE7">
-        <v>56.0622793873379</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>269.2622793873379</v>
+        <v>132.3</v>
       </c>
       <c r="AG7">
-        <v>153.4622793873379</v>
+        <v>61.90000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.1360554855659691</v>
+        <v>0.2469665857756207</v>
       </c>
       <c r="AI7">
-        <v>0.1873569069055475</v>
+        <v>0.1689655172413793</v>
       </c>
       <c r="AJ7">
-        <v>0.0823621457295846</v>
+        <v>0.1330324521813884</v>
       </c>
       <c r="AK7">
-        <v>0.1161394431953152</v>
+        <v>0.08686500140331183</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>26.09547123623011</v>
-      </c>
-      <c r="AP7">
-        <v>18.78363272794834</v>
       </c>
     </row>
     <row r="8">
@@ -1359,7 +1326,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCBA Group PLC (NASE:NCBA)</t>
+          <t>Stanbic Holdings Plc (NASE:SBIC)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1368,10 +1335,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.136</v>
+        <v>0.0567</v>
       </c>
       <c r="E8">
-        <v>0.128</v>
+        <v>0.0257</v>
+      </c>
+      <c r="F8">
+        <v>0.098</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1380,94 +1350,103 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0005915141135713354</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0004589506789509343</v>
       </c>
       <c r="K8">
-        <v>60.2</v>
+        <v>45.7</v>
       </c>
       <c r="L8">
-        <v>0.3111111111111111</v>
+        <v>0.2522075055187638</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>39.3</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.1277633289986996</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0.8599562363238511</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>39.3</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.1277633289986996</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0.8599562363238511</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>56.4</v>
+        <v>166.5</v>
       </c>
       <c r="V8">
-        <v>0.1035622475211164</v>
+        <v>0.5412873862158647</v>
       </c>
       <c r="W8">
-        <v>0.1984179301252472</v>
+        <v>0.099825251201398</v>
       </c>
       <c r="X8">
-        <v>0.06990919986369383</v>
+        <v>0.06640498679740442</v>
       </c>
       <c r="Y8">
-        <v>0.1285087302615534</v>
+        <v>0.03342026440399358</v>
       </c>
       <c r="Z8">
-        <v>0.5584415584415585</v>
+        <v>0.5997535683821076</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.0002752573074122139</v>
       </c>
       <c r="AB8">
-        <v>0.0675635638775976</v>
+        <v>0.06402157685438542</v>
       </c>
       <c r="AC8">
-        <v>-0.0675635638775976</v>
+        <v>-0.06374631954697321</v>
       </c>
       <c r="AD8">
-        <v>145.9</v>
+        <v>81.3</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.2240882131043701</v>
       </c>
       <c r="AF8">
-        <v>145.9</v>
+        <v>81.52408821310436</v>
       </c>
       <c r="AG8">
-        <v>89.5</v>
+        <v>-84.97591178689564</v>
       </c>
       <c r="AH8">
-        <v>0.2112961622013034</v>
+        <v>0.2095066604266801</v>
       </c>
       <c r="AI8">
-        <v>0.3182115594329335</v>
+        <v>0.1497437199751406</v>
       </c>
       <c r="AJ8">
-        <v>0.1411449298217947</v>
+        <v>-0.3817013355066654</v>
       </c>
       <c r="AK8">
-        <v>0.222581447401144</v>
+        <v>-0.2248491547301936</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>534.8684210526316</v>
+      </c>
+      <c r="AP8">
+        <v>-559.0520512295766</v>
       </c>
     </row>
     <row r="9">
@@ -1478,7 +1457,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Barclays Bank Of Kenya Limited (NASE:BBK)</t>
+          <t>Equity Group Holdings Plc (NASE:EQTY)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1487,10 +1466,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0127</v>
+        <v>0.0321</v>
       </c>
       <c r="E9">
-        <v>-0.0179</v>
+        <v>0.0116</v>
+      </c>
+      <c r="F9">
+        <v>0.203</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1499,103 +1481,94 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0135035610453057</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.009162229269992469</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>72.59999999999999</v>
+        <v>183</v>
       </c>
       <c r="L9">
-        <v>0.2643845593590677</v>
+        <v>0.3143789726851056</v>
       </c>
       <c r="M9">
-        <v>59.7465</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.08350314465408805</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.8229545454545455</v>
+        <v>-0</v>
       </c>
       <c r="P9">
-        <v>59.7465</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.08350314465408805</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.8229545454545455</v>
+        <v>-0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>45.4</v>
+        <v>384.3</v>
       </c>
       <c r="V9">
-        <v>0.06345213137665967</v>
+        <v>0.3043960396039604</v>
       </c>
       <c r="W9">
-        <v>0.1714285714285714</v>
+        <v>0.1747517188693659</v>
       </c>
       <c r="X9">
-        <v>0.08684008184703464</v>
+        <v>0.07433162255079558</v>
       </c>
       <c r="Y9">
-        <v>0.08458848958153677</v>
+        <v>0.1004200963185703</v>
       </c>
       <c r="Z9">
-        <v>0.3307399233518187</v>
+        <v>0.9295752155860747</v>
       </c>
       <c r="AA9">
-        <v>0.003030315006489099</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.0709697651785728</v>
+        <v>0.06538056072525468</v>
       </c>
       <c r="AC9">
-        <v>-0.06793945017208371</v>
+        <v>-0.06538056072525468</v>
       </c>
       <c r="AD9">
-        <v>579.4</v>
+        <v>631.4</v>
       </c>
       <c r="AE9">
-        <v>17.55961068479527</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>596.9596106847953</v>
+        <v>631.4</v>
       </c>
       <c r="AG9">
-        <v>551.5596106847953</v>
+        <v>247.1</v>
       </c>
       <c r="AH9">
-        <v>0.4548403667624658</v>
+        <v>0.3333861344315961</v>
       </c>
       <c r="AI9">
-        <v>0.5847617090898064</v>
+        <v>0.3325082942756332</v>
       </c>
       <c r="AJ9">
-        <v>0.4353067574987252</v>
+        <v>0.1636857445680975</v>
       </c>
       <c r="AK9">
-        <v>0.5654356209557335</v>
+        <v>0.1631453849201109</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>80.24930747922437</v>
-      </c>
-      <c r="AP9">
-        <v>76.39329787878052</v>
       </c>
     </row>
     <row r="10">
@@ -1615,10 +1588,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0944</v>
+        <v>0.0488</v>
       </c>
       <c r="E10">
-        <v>0.06519999999999999</v>
+        <v>-0.0142</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1627,16 +1600,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01296825268825386</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.008395360691491648</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>68</v>
+        <v>47.8</v>
       </c>
       <c r="L10">
-        <v>0.2928509905254091</v>
+        <v>0.2366336633663366</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1660,67 +1633,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>74.8</v>
+        <v>66.3</v>
       </c>
       <c r="V10">
-        <v>0.24891846921797</v>
+        <v>0.3454924439812402</v>
       </c>
       <c r="W10">
-        <v>0.1321414691022153</v>
+        <v>0.08422907488986783</v>
       </c>
       <c r="X10">
-        <v>0.08079019395673698</v>
+        <v>0.09568470731641682</v>
       </c>
       <c r="Y10">
-        <v>0.05135127514547833</v>
+        <v>-0.01145563242654898</v>
       </c>
       <c r="Z10">
-        <v>0.3745319206095346</v>
+        <v>0.3073973186431908</v>
       </c>
       <c r="AA10">
-        <v>0.003144330563994157</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.07227809879554779</v>
+        <v>0.07007664977116869</v>
       </c>
       <c r="AC10">
-        <v>-0.06913376823155364</v>
+        <v>-0.07007664977116869</v>
       </c>
       <c r="AD10">
-        <v>166.1</v>
+        <v>217.5</v>
       </c>
       <c r="AE10">
-        <v>23.79385862893727</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>189.8938586289373</v>
+        <v>217.5</v>
       </c>
       <c r="AG10">
-        <v>115.0938586289373</v>
+        <v>151.2</v>
       </c>
       <c r="AH10">
-        <v>0.3872272364092204</v>
+        <v>0.5312652662432829</v>
       </c>
       <c r="AI10">
-        <v>0.2335161002680252</v>
+        <v>0.2547136667057032</v>
       </c>
       <c r="AJ10">
-        <v>0.2769383046434735</v>
+        <v>0.4406878461090061</v>
       </c>
       <c r="AK10">
-        <v>0.1558705523941458</v>
+        <v>0.1919756221432199</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>21.37709137709138</v>
-      </c>
-      <c r="AP10">
-        <v>14.81259441813865</v>
       </c>
     </row>
     <row r="11">
@@ -1731,7 +1698,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I&amp;M Holdings PLC (NASE:IMH)</t>
+          <t>Absa Bank Kenya PLC (NASE:ABSA)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1740,10 +1707,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.09960000000000001</v>
+        <v>-0.014</v>
       </c>
       <c r="E11">
-        <v>0.112</v>
+        <v>-0.149</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1752,34 +1719,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.001675857368661026</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.001244723937719185</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>84.09999999999999</v>
+        <v>35.2</v>
       </c>
       <c r="L11">
-        <v>0.419870194707938</v>
+        <v>0.1488372093023256</v>
       </c>
       <c r="M11">
-        <v>15.7092</v>
+        <v>43.452</v>
       </c>
       <c r="N11">
-        <v>0.0356622020431328</v>
+        <v>0.09048729695960016</v>
       </c>
       <c r="O11">
-        <v>0.1867919143876338</v>
+        <v>1.234431818181818</v>
       </c>
       <c r="P11">
-        <v>15.7092</v>
+        <v>43.452</v>
       </c>
       <c r="Q11">
-        <v>0.0356622020431328</v>
+        <v>0.09048729695960016</v>
       </c>
       <c r="R11">
-        <v>0.1867919143876338</v>
+        <v>1.234431818181818</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1788,67 +1755,61 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>174.3</v>
+        <v>47.3</v>
       </c>
       <c r="V11">
-        <v>0.3956867196367764</v>
+        <v>0.09850062473969179</v>
       </c>
       <c r="W11">
-        <v>0.1803173241852487</v>
+        <v>0.08303845246520407</v>
       </c>
       <c r="X11">
-        <v>0.07253302491800127</v>
+        <v>0.1016980568893803</v>
       </c>
       <c r="Y11">
-        <v>0.1077842992672474</v>
+        <v>-0.01865960442417619</v>
       </c>
       <c r="Z11">
-        <v>0.4718732769707944</v>
+        <v>0.2468942478338031</v>
       </c>
       <c r="AA11">
-        <v>-0.000587351963415543</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.06893207252533806</v>
+        <v>0.07093482872751147</v>
       </c>
       <c r="AC11">
-        <v>-0.0695194244887536</v>
+        <v>-0.07093482872751147</v>
       </c>
       <c r="AD11">
-        <v>130.2</v>
+        <v>629.9</v>
       </c>
       <c r="AE11">
-        <v>26.47837115471402</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>156.678371154714</v>
+        <v>629.9</v>
       </c>
       <c r="AG11">
-        <v>-17.62162884528601</v>
+        <v>582.6</v>
       </c>
       <c r="AH11">
-        <v>0.2623644437285264</v>
+        <v>0.5674263579857671</v>
       </c>
       <c r="AI11">
-        <v>0.2201224109978722</v>
+        <v>0.6050912584053795</v>
       </c>
       <c r="AJ11">
-        <v>-0.04167067896418607</v>
+        <v>0.5481746330447874</v>
       </c>
       <c r="AK11">
-        <v>-0.03278574504761531</v>
+        <v>0.5862936499949682</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>26.25</v>
-      </c>
-      <c r="AP11">
-        <v>-3.552747751065728</v>
       </c>
     </row>
   </sheetData>
